--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_3.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_3.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9554460051574212</v>
+        <v>0.9294927037272391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7743206293777026</v>
+        <v>0.7670165582516673</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7559566033386882</v>
+        <v>0.7188454644980931</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9786333771649882</v>
+        <v>0.8875652682129354</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1854571929827815</v>
+        <v>0.2934885030568608</v>
       </c>
       <c r="G2" t="n">
-        <v>1.509118990509253</v>
+        <v>1.557961347761207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.87292907940834</v>
+        <v>1.005673471213683</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1308109672399076</v>
+        <v>0.5655193134970379</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9797290533904149</v>
+        <v>1.538755975527769</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4306474114432612</v>
+        <v>0.5417457919143081</v>
       </c>
       <c r="L2" t="n">
-        <v>3.851455669925045</v>
+        <v>0.9039900646498575</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4374296776840169</v>
+        <v>0.5502777465898464</v>
       </c>
       <c r="N2" t="n">
-        <v>133.3698623783132</v>
+        <v>36.45183362469763</v>
       </c>
       <c r="O2" t="n">
-        <v>274.7050349215296</v>
+        <v>73.41641721292346</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.955057056996084</v>
+        <v>0.9295165880494803</v>
       </c>
       <c r="C3" t="n">
-        <v>0.772325638551095</v>
+        <v>0.7669303019415235</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7578758760426612</v>
+        <v>0.718578828952307</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9774628460009919</v>
+        <v>0.8886067732020174</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1870762000880311</v>
+        <v>0.293389083927896</v>
       </c>
       <c r="G3" t="n">
-        <v>1.522459503352867</v>
+        <v>1.558538144104312</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8660639522320541</v>
+        <v>1.006627211100542</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1379772056730543</v>
+        <v>0.5602807970967418</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9648888157313122</v>
+        <v>1.537095702084375</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4325230630706657</v>
+        <v>0.5416540260423585</v>
       </c>
       <c r="L3" t="n">
-        <v>3.876348352250623</v>
+        <v>0.9040225879822711</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4393348689495892</v>
+        <v>0.5501845354971459</v>
       </c>
       <c r="N3" t="n">
-        <v>133.3524785160522</v>
+        <v>36.45251123878358</v>
       </c>
       <c r="O3" t="n">
-        <v>274.6876510592686</v>
+        <v>73.41709482700939</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9544084482316578</v>
+        <v>0.9295364405409008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7721654957108168</v>
+        <v>0.7668403637410168</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7571050872159008</v>
+        <v>0.7183043073523592</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9774495938702069</v>
+        <v>0.889648710983209</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1897760513857552</v>
+        <v>0.2933064474023596</v>
       </c>
       <c r="G4" t="n">
-        <v>1.523530379263197</v>
+        <v>1.559139561265227</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8688210191724721</v>
+        <v>1.007609158945878</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1380583380101282</v>
+        <v>0.5550401038575568</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9718676662177259</v>
+        <v>1.535398212877166</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4356329319343926</v>
+        <v>0.5415777390203179</v>
       </c>
       <c r="L4" t="n">
-        <v>3.917859313173899</v>
+        <v>0.9040496211620777</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4424937151391914</v>
+        <v>0.5501070470307671</v>
       </c>
       <c r="N4" t="n">
-        <v>133.3238211578494</v>
+        <v>36.45307464192316</v>
       </c>
       <c r="O4" t="n">
-        <v>274.6589937010658</v>
+        <v>73.41765823014899</v>
       </c>
     </row>
     <row r="5">
@@ -659,144 +659,144 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.953561359848175</v>
+        <v>0.9295521063055751</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7715729169514952</v>
+        <v>0.7667465932253756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7563553315201929</v>
+        <v>0.7180215274808084</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9771701818783722</v>
+        <v>0.8906904593909811</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1933020793965788</v>
+        <v>0.2932412382386766</v>
       </c>
       <c r="G5" t="n">
-        <v>1.527492956155355</v>
+        <v>1.559766605135093</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8715028518226862</v>
+        <v>1.008620646149897</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1397689571001241</v>
+        <v>0.5498003631205424</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9812928775547777</v>
+        <v>1.533662116884493</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4396613235168392</v>
+        <v>0.5415175327158638</v>
       </c>
       <c r="L5" t="n">
-        <v>3.972072969716798</v>
+        <v>0.904070953267166</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4465855498621474</v>
+        <v>0.5500458925372022</v>
       </c>
       <c r="N5" t="n">
-        <v>133.2870022709429</v>
+        <v>36.45351934004778</v>
       </c>
       <c r="O5" t="n">
-        <v>274.6221748141593</v>
+        <v>73.41810292827361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_3_4</t>
+          <t>model_1_3_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9499944464228407</v>
+        <v>0.9295634747917043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7712531632911805</v>
+        <v>0.7666487561365096</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7526165785597644</v>
+        <v>0.7177304165289247</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9782925130224049</v>
+        <v>0.8917320493801241</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2081494517548243</v>
+        <v>0.2931939166116613</v>
       </c>
       <c r="G6" t="n">
-        <v>1.529631150354209</v>
+        <v>1.560420842198839</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8848761543767862</v>
+        <v>1.009661933145202</v>
       </c>
       <c r="I6" t="n">
-        <v>0.132897809345608</v>
+        <v>0.5445614191906446</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9983693843142493</v>
+        <v>1.531886390894395</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4562339879434941</v>
+        <v>0.5414738374212196</v>
       </c>
       <c r="L6" t="n">
-        <v>4.200355428938195</v>
+        <v>0.9040864337589165</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4634192171869355</v>
+        <v>0.5500015090853464</v>
       </c>
       <c r="N6" t="n">
-        <v>133.1389978784786</v>
+        <v>36.45384211487959</v>
       </c>
       <c r="O6" t="n">
-        <v>274.474170421695</v>
+        <v>73.41842570310541</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_3_5</t>
+          <t>model_1_3_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9527496777940037</v>
+        <v>0.9295703985142906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7707396149586039</v>
+        <v>0.7665467191552195</v>
       </c>
       <c r="D7" t="n">
-        <v>0.755828191872738</v>
+        <v>0.7174305632787126</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9767798253158291</v>
+        <v>0.8927731617780406</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1966807276164074</v>
+        <v>0.2931650964315544</v>
       </c>
       <c r="G7" t="n">
-        <v>1.533065250418822</v>
+        <v>1.561103163962563</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8733883997763191</v>
+        <v>1.01073449083472</v>
       </c>
       <c r="I7" t="n">
-        <v>0.142158802229559</v>
+        <v>0.5393248774282827</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9859381583538571</v>
+        <v>1.530070031734795</v>
       </c>
       <c r="K7" t="n">
-        <v>0.44348700952385</v>
+        <v>0.5414472240500956</v>
       </c>
       <c r="L7" t="n">
-        <v>4.024020621183766</v>
+        <v>0.9040958618066935</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4504714865994855</v>
+        <v>0.5499744765802309</v>
       </c>
       <c r="N7" t="n">
-        <v>133.2523470739032</v>
+        <v>36.45403871920895</v>
       </c>
       <c r="O7" t="n">
-        <v>274.5875196171196</v>
+        <v>73.41862230743476</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.945539632727193</v>
+        <v>0.9295726878713655</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7621942249395004</v>
+        <v>0.7664401721993599</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7609351191241331</v>
+        <v>0.7171217254940987</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9711853736119708</v>
+        <v>0.893813520172675</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2266927326923738</v>
+        <v>0.2931555669216116</v>
       </c>
       <c r="G8" t="n">
-        <v>1.59020831282447</v>
+        <v>1.561815643947</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8551212171147344</v>
+        <v>1.01183918568284</v>
       </c>
       <c r="I8" t="n">
-        <v>0.176409214389195</v>
+        <v>0.5340921281187646</v>
       </c>
       <c r="J8" t="n">
-        <v>0.975678145916071</v>
+        <v>1.52824860407323</v>
       </c>
       <c r="K8" t="n">
-        <v>0.476122602585063</v>
+        <v>0.5414384239427523</v>
       </c>
       <c r="L8" t="n">
-        <v>4.485463505459649</v>
+        <v>0.9040989792290934</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4836210576277884</v>
+        <v>0.5499655378799939</v>
       </c>
       <c r="N8" t="n">
-        <v>132.968319557839</v>
+        <v>36.45410373148322</v>
       </c>
       <c r="O8" t="n">
-        <v>274.3034921010554</v>
+        <v>73.41868731970904</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9446753797446406</v>
+        <v>0.929570175315678</v>
       </c>
       <c r="C9" t="n">
-        <v>0.761602925034867</v>
+        <v>0.766329020524479</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7605785584091607</v>
+        <v>0.716803328716936</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9707068818449424</v>
+        <v>0.8948527720855655</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2302902088050656</v>
+        <v>0.2931660255017378</v>
       </c>
       <c r="G9" t="n">
-        <v>1.594162338009439</v>
+        <v>1.562558915708734</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8563966141176128</v>
+        <v>1.012978072493046</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1793386418117989</v>
+        <v>0.5288649441428972</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9827345323340995</v>
+        <v>1.526393848514594</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4798856205441726</v>
+        <v>0.5414480820002392</v>
       </c>
       <c r="L9" t="n">
-        <v>4.540775696343005</v>
+        <v>0.9040955578766678</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4874433393581161</v>
+        <v>0.5499753480422317</v>
       </c>
       <c r="N9" t="n">
-        <v>132.9368299760355</v>
+        <v>36.45403238101437</v>
       </c>
       <c r="O9" t="n">
-        <v>274.2720025192519</v>
+        <v>73.41861596924019</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9437383626283661</v>
+        <v>0.9295627379888318</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7608329936367684</v>
+        <v>0.7662130216615448</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7594568074614777</v>
+        <v>0.716475264069838</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9703058803324717</v>
+        <v>0.8958907188078982</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2341905675669472</v>
+        <v>0.2931969835732883</v>
       </c>
       <c r="G10" t="n">
-        <v>1.599310872813733</v>
+        <v>1.563334600639301</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8604090522146177</v>
+        <v>1.014151540713434</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1817936575677288</v>
+        <v>0.5236443249576112</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9904209014471979</v>
+        <v>1.524497243870817</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4839323997904534</v>
+        <v>0.5414766694635036</v>
       </c>
       <c r="L10" t="n">
-        <v>4.600744791784571</v>
+        <v>0.9040854304528774</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4915538513322307</v>
+        <v>0.5500043857294655</v>
       </c>
       <c r="N10" t="n">
-        <v>132.9032402074987</v>
+        <v>36.45382119394357</v>
       </c>
       <c r="O10" t="n">
-        <v>274.2384127507152</v>
+        <v>73.41840478216939</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.94291635340779</v>
+        <v>0.9295502452742198</v>
       </c>
       <c r="C11" t="n">
-        <v>0.760358734206465</v>
+        <v>0.7660918993132202</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7583133814077001</v>
+        <v>0.7161371844317177</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9700541426951297</v>
+        <v>0.8969273742789705</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2376122028926377</v>
+        <v>0.2932489848313763</v>
       </c>
       <c r="G11" t="n">
-        <v>1.602482247807935</v>
+        <v>1.564144546340265</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8644990209093284</v>
+        <v>1.015360831976006</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1833348484281502</v>
+        <v>0.518430200451635</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9982538125196072</v>
+        <v>1.522556830320909</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4874548213861852</v>
+        <v>0.5415246853388831</v>
       </c>
       <c r="L11" t="n">
-        <v>4.653353381901439</v>
+        <v>0.90406841909681</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4951317475469654</v>
+        <v>0.5500531578068839</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8742306676735</v>
+        <v>36.45346650648026</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2094032108898</v>
+        <v>73.41805009470609</v>
       </c>
     </row>
   </sheetData>
